--- a/semaine09/Exercices Normalisation CORRIGÉ.xlsx
+++ b/semaine09/Exercices Normalisation CORRIGÉ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DEB9C9-56E1-4E95-9D05-239D7B9EB07A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5039AE7-779B-46BB-8C82-F0E1C45DEF36}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>Parking du cégep</t>
   </si>
@@ -202,12 +202,6 @@
     <t>membres</t>
   </si>
   <si>
-    <t>id_vehicule (FK)</t>
-  </si>
-  <si>
-    <t>id_membre (FK)</t>
-  </si>
-  <si>
     <t>nom</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>id_prix (FK)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1
 </t>
   </si>
@@ -308,6 +299,18 @@
   </si>
   <si>
     <t>Dans la table modeles, car elle décrit précisément le modèle du véhicule (hyundai accent 2019, hyundai accent 2010, etc.)</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>id_session</t>
+  </si>
+  <si>
+    <t>id_membre</t>
+  </si>
+  <si>
+    <t>id_vehicule</t>
   </si>
 </sst>
 </file>
@@ -780,6 +783,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97A20DE-6E1D-4E07-95C9-9A1692B968CF}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>3</v>
       </c>
@@ -1434,22 +1441,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -1479,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" s="29">
         <v>2</v>
@@ -1543,15 +1550,15 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F46" s="34" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1562,7 +1569,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -1588,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>9</v>
@@ -1611,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>37</v>
@@ -1625,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>41</v>
@@ -1639,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>20</v>
@@ -1650,22 +1657,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -1673,7 +1680,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -1689,33 +1696,33 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>4</v>
@@ -1726,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" s="36">
         <v>1</v>
@@ -1740,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C71" s="37">
         <v>2</v>
@@ -1754,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C72" s="37">
         <v>3</v>
@@ -1768,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="36">
         <v>4</v>
@@ -1779,33 +1786,33 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="27"/>
       <c r="E76" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1813,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -1822,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
@@ -1839,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1847,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
@@ -1856,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -1864,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C81" s="4">
         <v>4</v>
@@ -1873,12 +1880,12 @@
         <v>4</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -1894,7 +1901,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>

--- a/semaine09/Exercices Normalisation CORRIGÉ.xlsx
+++ b/semaine09/Exercices Normalisation CORRIGÉ.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5039AE7-779B-46BB-8C82-F0E1C45DEF36}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D814CDFA-F19C-4EE4-98E2-8EF666D223B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="2" r:id="rId1"/>
+    <sheet name="2-baux_maisons" sheetId="3" r:id="rId2"/>
+    <sheet name="3-reservations" sheetId="4" r:id="rId3"/>
+    <sheet name="4-Cours-étudiants" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="281">
   <si>
     <t>Parking du cégep</t>
   </si>
@@ -311,6 +314,611 @@
   </si>
   <si>
     <t>id_vehicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forme universelle (non-normalisée) </t>
+  </si>
+  <si>
+    <t>baux</t>
+  </si>
+  <si>
+    <t>source du schéma: université Laval</t>
+  </si>
+  <si>
+    <t>id_client</t>
+  </si>
+  <si>
+    <t>nom_client</t>
+  </si>
+  <si>
+    <t>num_propriete</t>
+  </si>
+  <si>
+    <t>adresse_proprio</t>
+  </si>
+  <si>
+    <t>debut_bail</t>
+  </si>
+  <si>
+    <t>fin_bail</t>
+  </si>
+  <si>
+    <t>montant_location</t>
+  </si>
+  <si>
+    <t>num_proprietaire</t>
+  </si>
+  <si>
+    <t>nom_proprio</t>
+  </si>
+  <si>
+    <t>CL76</t>
+  </si>
+  <si>
+    <t>Jean Martin</t>
+  </si>
+  <si>
+    <t>LM4
+LM16</t>
+  </si>
+  <si>
+    <t>430 des peupliers #5, Montréal;
+911 de l'aéroport #1809, Montréal</t>
+  </si>
+  <si>
+    <t>2003-07-01
+2004-09-01</t>
+  </si>
+  <si>
+    <t>2004-08-31
+2005-09-01</t>
+  </si>
+  <si>
+    <t>350
+450</t>
+  </si>
+  <si>
+    <t>CP40
+CP93</t>
+  </si>
+  <si>
+    <t>Brigitte Gauthier
+Guy Lacasse</t>
+  </si>
+  <si>
+    <t>CL56</t>
+  </si>
+  <si>
+    <t>Oscar Meier</t>
+  </si>
+  <si>
+    <t>LM4
+LM36
+LM16</t>
+  </si>
+  <si>
+    <t>430 des peupliers #5, Montréal;
+1780 boul. central #210, Montréal;
+911 de l'aéroport #1809, Montréal</t>
+  </si>
+  <si>
+    <t>2002-09-01
+2003-10-10
+2005-11-01</t>
+  </si>
+  <si>
+    <t>2003-06-10
+2004-12-01
+2006-08-10</t>
+  </si>
+  <si>
+    <t>350
+375
+450</t>
+  </si>
+  <si>
+    <t>CP40
+CP93
+CP93</t>
+  </si>
+  <si>
+    <t>Brigitte Gauthier
+Guy Lacasse
+Guy Lacasse</t>
+  </si>
+  <si>
+    <t>Pour toutes les questions: ajouter les clés primaires et clés étrangères. Naturelles ou artificielles?</t>
+  </si>
+  <si>
+    <t>1NF (une info par ligne, PK naturelle composée en orange)</t>
+  </si>
+  <si>
+    <t>code_client</t>
+  </si>
+  <si>
+    <t>adresse_propriete</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>LM4</t>
+  </si>
+  <si>
+    <t>430 des peupliers #5</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>CP40</t>
+  </si>
+  <si>
+    <t>Brigitte Gauthier</t>
+  </si>
+  <si>
+    <t>LM16</t>
+  </si>
+  <si>
+    <t>911 de l'aéroport #1809</t>
+  </si>
+  <si>
+    <t>CP93</t>
+  </si>
+  <si>
+    <t>Guy Lacasse</t>
+  </si>
+  <si>
+    <t>LM36</t>
+  </si>
+  <si>
+    <t>1780 boul. central #210</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>Certains champs dépendent d'une partie de la PK. On sépare donc en 3: ceux qui dépendent des 2, ceux qui dépendent de l'une et de l'autre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_propriete  </t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>proprietes</t>
+  </si>
+  <si>
+    <t>nom_proprietaire</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans la table Propriete_proprietaire, on a des champs qui dépendent d'autre champs non-clé. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_client </t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>id_proprietaire</t>
+  </si>
+  <si>
+    <t>id_ville</t>
+  </si>
+  <si>
+    <t>villes</t>
+  </si>
+  <si>
+    <t>proprietaires</t>
+  </si>
+  <si>
+    <t># il n'est pas rare que le champs adresse_proprio soit divisé selon chaque déclinaison</t>
+  </si>
+  <si>
+    <t>Voyage: champs reliés à la réservation d'une chambre d'hôtel</t>
+  </si>
+  <si>
+    <t>Réservation</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>adresse_hotel</t>
+  </si>
+  <si>
+    <t>nombre_personnes</t>
+  </si>
+  <si>
+    <t>responsable_reservation</t>
+  </si>
+  <si>
+    <t>type_chambre</t>
+  </si>
+  <si>
+    <t>avec_animaux</t>
+  </si>
+  <si>
+    <t>coupon_rabais</t>
+  </si>
+  <si>
+    <t>montant_coupon</t>
+  </si>
+  <si>
+    <t>numero_carte_credit</t>
+  </si>
+  <si>
+    <t>numero_telephone</t>
+  </si>
+  <si>
+    <t>demande_speciale</t>
+  </si>
+  <si>
+    <t>date_arrivee</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Plaza</t>
+  </si>
+  <si>
+    <t>123 boulevard topnotch</t>
+  </si>
+  <si>
+    <t>Joanie Gauthier</t>
+  </si>
+  <si>
+    <t>1 lit king</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>888-9874</t>
+  </si>
+  <si>
+    <t>pas de tapis</t>
+  </si>
+  <si>
+    <t>Varadero</t>
+  </si>
+  <si>
+    <t>Iberostar</t>
+  </si>
+  <si>
+    <t>4 route 1</t>
+  </si>
+  <si>
+    <t>Caroline Fuguain</t>
+  </si>
+  <si>
+    <t>2 lits doubles</t>
+  </si>
+  <si>
+    <t>Noel2024</t>
+  </si>
+  <si>
+    <t>555-9863</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Sheraton</t>
+  </si>
+  <si>
+    <t>5 boulevard René-Lévesque</t>
+  </si>
+  <si>
+    <t>Herman Kolger</t>
+  </si>
+  <si>
+    <t>suite junior</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Bravo1212</t>
+  </si>
+  <si>
+    <t>555-9999</t>
+  </si>
+  <si>
+    <t>2 lits</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>1NF</t>
+  </si>
+  <si>
+    <t>déjà en 1NF</t>
+  </si>
+  <si>
+    <t>id_reservation (PK)</t>
+  </si>
+  <si>
+    <t>adresse hotel</t>
+  </si>
+  <si>
+    <t>Numéro carte crédit</t>
+  </si>
+  <si>
+    <t>La clé primaire est artificielle</t>
+  </si>
+  <si>
+    <t>On doit avoir une unicité à chaque enregistrement entre la date arrivée, l'hôtel et le client qui réserve. Les champs naturels qui rendent la ligne unique sont nombreux pour le moment, mais on doit avoir toutes ces informations pour assurer l'unicité d'une ligne</t>
+  </si>
+  <si>
+    <t>Chaque ligne est unique</t>
+  </si>
+  <si>
+    <t>reservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_hotel </t>
+  </si>
+  <si>
+    <t>montant coupon</t>
+  </si>
+  <si>
+    <t>bravo1212</t>
+  </si>
+  <si>
+    <t>ville et adresse décrivent seulement l'hôtel</t>
+  </si>
+  <si>
+    <t>la carte de crédit appartient au client, tout comme numéro de tel</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>id_hotel</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>la table est en 2NF puisque tous les champs décrivent la clé (id,date, hotel, client)</t>
+  </si>
+  <si>
+    <t>Le montant du coupon dépend du code du coupon, on sort donc l'information</t>
+  </si>
+  <si>
+    <t>les autres tables (hotel et client) sont aussi dans le modèle en 3NF.</t>
+  </si>
+  <si>
+    <t>id_reservation</t>
+  </si>
+  <si>
+    <t>id_type_chambre</t>
+  </si>
+  <si>
+    <t>id_coupon_rabais</t>
+  </si>
+  <si>
+    <t>coupons</t>
+  </si>
+  <si>
+    <t>montant</t>
+  </si>
+  <si>
+    <t>types_chambres</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Puisque les valeurs sont connues d'avance et ne sont pas susceptibles de changer, on met aussi le type de chambre en lookup table</t>
+  </si>
+  <si>
+    <t>seances</t>
+  </si>
+  <si>
+    <t>cours</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>heure</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>etudiant</t>
+  </si>
+  <si>
+    <t>note_etudiant</t>
+  </si>
+  <si>
+    <t>Analyse fonctionnelle</t>
+  </si>
+  <si>
+    <t>Marie-Christine</t>
+  </si>
+  <si>
+    <t>14:30 à 16:30
+13:30 à 15:30</t>
+  </si>
+  <si>
+    <t>Mercredi
+jeudi</t>
+  </si>
+  <si>
+    <t>Yassine, Gabriel Basque, Gabriel Bolduc, Marie-Eve, Jeffrey, Aboubacar, Thierno, William, Jordan, Taha, Alexandre, Derek, Alex, Mathis, Monsif, Samer, Samuel, Zachary, Eva</t>
+  </si>
+  <si>
+    <t>…,  …,  …,  …, …</t>
+  </si>
+  <si>
+    <t>Structure de données</t>
+  </si>
+  <si>
+    <t>Lyne</t>
+  </si>
+  <si>
+    <t>10:30 à 12:30
+14:30 à 17h30</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>…
+...
+…</t>
+  </si>
+  <si>
+    <t>Base de données 1</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>1133-A</t>
+  </si>
+  <si>
+    <t>Mettre en 1NF, 2NF, 3NF</t>
+  </si>
+  <si>
+    <t>Pour être en 1NF, il faut une clé primaire…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La clé primaire doit rassembler les 7 champs pour être unique. </t>
+  </si>
+  <si>
+    <t>Donc chaque champs ne décrit pas totalité de la clé primaire</t>
+  </si>
+  <si>
+    <t>On va faire une décomposition en sous tables</t>
+  </si>
+  <si>
+    <t>NOTE: pour que la table soit viables dans les années à venir, il fallait ajouter la colonne session</t>
+  </si>
+  <si>
+    <t>la note représente la note finale de l'étudiant. Si on veut les notes de travaux, c'est un défi supplémentaire</t>
+  </si>
+  <si>
+    <t>professeurs</t>
+  </si>
+  <si>
+    <t>heure_debut</t>
+  </si>
+  <si>
+    <t>heure_fin</t>
+  </si>
+  <si>
+    <t>Analyse relationnelle</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Yassine</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>Gabriel Basque</t>
+  </si>
+  <si>
+    <t>Gabriel Bolduc</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>etu1</t>
+  </si>
+  <si>
+    <t>etu2</t>
+  </si>
+  <si>
+    <t>etu3</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>etu4</t>
+  </si>
+  <si>
+    <t>prestations</t>
+  </si>
+  <si>
+    <t>profs</t>
+  </si>
+  <si>
+    <t>id_horaire</t>
+  </si>
+  <si>
+    <t>id_cours</t>
+  </si>
+  <si>
+    <t>id_prof</t>
+  </si>
+  <si>
+    <t>horaires</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>etudiants</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>elev1</t>
+  </si>
+  <si>
+    <t>elev2</t>
+  </si>
+  <si>
+    <t>Maintenant, comment attacher les séances aux étudiants?</t>
+  </si>
+  <si>
+    <t>Puisqu'un étudiant peut avoir plusieurs séance d'un cours et qu'une séance de cours s'adresse à plusieurs  étudiants, on fera une table de liaison aussi!</t>
+  </si>
+  <si>
+    <t>etudiants_seances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_etudiant </t>
+  </si>
+  <si>
+    <t>id_seance</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -334,7 +942,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +985,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -401,11 +1039,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,6 +1159,181 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,6 +1612,497 @@
           <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192503</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5513896" cy="3940194"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651EE67E-0F6B-44F2-AC7F-4321709B018A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15870653" y="640237"/>
+          <a:ext cx="5513896" cy="3940194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1123362</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>785570</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102122</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur : en angle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434F77D3-23C8-4612-8F74-3567BD90C697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1123362" y="6618399"/>
+          <a:ext cx="2557808" cy="2437223"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2083"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1154783</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur : en angle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A6CE5-0110-417F-BCF5-5A3F187DEF71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2640683" y="6602691"/>
+          <a:ext cx="4055392" cy="1741209"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295403</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>23567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>707011</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur : en angle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039313C1-F67E-43E6-93C0-A0C00573BC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1295403" y="13739567"/>
+          <a:ext cx="3650233" cy="1414705"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -198"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510618</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620598</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>54989</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C11A9-A31F-421E-9A1F-0CC1513CABD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7206693" y="13716000"/>
+          <a:ext cx="109980" cy="1197989"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542928</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213363</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur : en angle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2D8D87-188F-4C7B-A7B2-467AD5E7164B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5489260" y="7312344"/>
+          <a:ext cx="1760221" cy="1461135"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur : en angle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333E4336-85B3-4971-B65C-1CF4BD81F6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="585788" y="7310438"/>
+          <a:ext cx="1809750" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur : en angle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF33DED-8819-4CF7-8712-C8F2840A8061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="472440" y="12001499"/>
+          <a:ext cx="9833611" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 66"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur : en angle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170C2D68-22A4-448A-B7E1-2B7CC7CB4D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7922895" y="11942445"/>
+          <a:ext cx="2790825" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -131"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1108,36 +2438,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97A20DE-6E1D-4E07-95C9-9A1692B968CF}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +2527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1217,37 +2547,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1264,12 +2594,12 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +2622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1315,7 +2645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -1338,7 +2668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>3</v>
       </c>
@@ -1361,7 +2691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>4</v>
       </c>
@@ -1384,32 +2714,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>49</v>
       </c>
@@ -1426,12 +2756,12 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +2769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +2790,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>1</v>
       </c>
@@ -1481,7 +2811,7 @@
       </c>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>2</v>
       </c>
@@ -1502,7 +2832,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>3</v>
       </c>
@@ -1523,7 +2853,7 @@
       </c>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>4</v>
       </c>
@@ -1539,21 +2869,21 @@
       <c r="F42" s="33"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F43" s="33"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F44" s="33"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F45" s="33"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F46" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -1567,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +2920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>1</v>
       </c>
@@ -1613,7 +2943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>2</v>
       </c>
@@ -1627,7 +2957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>3</v>
       </c>
@@ -1641,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>4</v>
       </c>
@@ -1655,30 +2985,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>64</v>
       </c>
@@ -1694,27 +3024,27 @@
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>55</v>
       </c>
@@ -1728,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>1</v>
       </c>
@@ -1742,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>2</v>
       </c>
@@ -1756,7 +3086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>3</v>
       </c>
@@ -1770,7 +3100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>4</v>
       </c>
@@ -1784,12 +3114,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
         <v>80</v>
       </c>
@@ -1798,7 +3128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>55</v>
       </c>
@@ -1815,7 +3145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>1</v>
       </c>
@@ -1832,7 +3162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>2</v>
       </c>
@@ -1849,7 +3179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>3</v>
       </c>
@@ -1866,7 +3196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>4</v>
       </c>
@@ -1883,7 +3213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>76</v>
       </c>
@@ -1899,7 +3229,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -1910,7 +3240,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -1919,7 +3249,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -1928,7 +3258,7 @@
       <c r="I89" s="26"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -1937,7 +3267,7 @@
       <c r="I90" s="26"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -1946,30 +3276,30 @@
       <c r="I91" s="25"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H96" s="27"/>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H97" s="27"/>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H98" s="27"/>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H99" s="27"/>
       <c r="I99" s="18"/>
       <c r="J99" s="18"/>
@@ -1978,4 +3308,3617 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8F6A7-63DA-43DB-BC06-EA7B2757BDC4}">
+  <dimension ref="A1:L82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <v>1</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="48">
+        <v>37803</v>
+      </c>
+      <c r="H20" s="49">
+        <v>38230</v>
+      </c>
+      <c r="I20" s="38">
+        <v>350</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
+        <v>2</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="51">
+        <v>38231</v>
+      </c>
+      <c r="H21" s="52">
+        <v>38596</v>
+      </c>
+      <c r="I21" s="4">
+        <v>450</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="51">
+        <v>37500</v>
+      </c>
+      <c r="H22" s="52">
+        <v>37782</v>
+      </c>
+      <c r="I22" s="4">
+        <v>350</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="51">
+        <v>37904</v>
+      </c>
+      <c r="H23" s="52">
+        <v>38322</v>
+      </c>
+      <c r="I23" s="4">
+        <v>375</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="51">
+        <v>38657</v>
+      </c>
+      <c r="H24" s="52">
+        <v>38939</v>
+      </c>
+      <c r="I24" s="4">
+        <v>450</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55">
+        <v>1</v>
+      </c>
+      <c r="B33" s="56">
+        <v>1</v>
+      </c>
+      <c r="C33" s="56">
+        <v>1</v>
+      </c>
+      <c r="D33" s="49">
+        <v>37803</v>
+      </c>
+      <c r="E33" s="49">
+        <v>38230</v>
+      </c>
+      <c r="F33" s="38">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55">
+        <v>2</v>
+      </c>
+      <c r="B34" s="56">
+        <v>1</v>
+      </c>
+      <c r="C34" s="57">
+        <v>2</v>
+      </c>
+      <c r="D34" s="52">
+        <v>38231</v>
+      </c>
+      <c r="E34" s="52">
+        <v>38596</v>
+      </c>
+      <c r="F34" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>3</v>
+      </c>
+      <c r="B35" s="57">
+        <v>2</v>
+      </c>
+      <c r="C35" s="56">
+        <v>1</v>
+      </c>
+      <c r="D35" s="52">
+        <v>37500</v>
+      </c>
+      <c r="E35" s="52">
+        <v>37782</v>
+      </c>
+      <c r="F35" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>4</v>
+      </c>
+      <c r="B36" s="57">
+        <v>2</v>
+      </c>
+      <c r="C36" s="57">
+        <v>3</v>
+      </c>
+      <c r="D36" s="52">
+        <v>37904</v>
+      </c>
+      <c r="E36" s="52">
+        <v>38322</v>
+      </c>
+      <c r="F36" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>5</v>
+      </c>
+      <c r="B37" s="57">
+        <v>2</v>
+      </c>
+      <c r="C37" s="57">
+        <v>2</v>
+      </c>
+      <c r="D37" s="52">
+        <v>38657</v>
+      </c>
+      <c r="E37" s="52">
+        <v>38939</v>
+      </c>
+      <c r="F37" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="21">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>1</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
+        <v>1</v>
+      </c>
+      <c r="B61" s="56">
+        <v>1</v>
+      </c>
+      <c r="C61" s="56">
+        <v>1</v>
+      </c>
+      <c r="D61" s="49">
+        <v>37803</v>
+      </c>
+      <c r="E61" s="49">
+        <v>38230</v>
+      </c>
+      <c r="F61" s="38">
+        <v>350</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J61" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="55">
+        <v>2</v>
+      </c>
+      <c r="B62" s="56">
+        <v>1</v>
+      </c>
+      <c r="C62" s="57">
+        <v>2</v>
+      </c>
+      <c r="D62" s="52">
+        <v>38231</v>
+      </c>
+      <c r="E62" s="52">
+        <v>38596</v>
+      </c>
+      <c r="F62" s="4">
+        <v>450</v>
+      </c>
+      <c r="H62" s="55">
+        <v>1</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="21">
+        <v>3</v>
+      </c>
+      <c r="B63" s="57">
+        <v>2</v>
+      </c>
+      <c r="C63" s="56">
+        <v>1</v>
+      </c>
+      <c r="D63" s="52">
+        <v>37500</v>
+      </c>
+      <c r="E63" s="52">
+        <v>37782</v>
+      </c>
+      <c r="F63" s="4">
+        <v>350</v>
+      </c>
+      <c r="H63" s="21">
+        <v>2</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
+        <v>4</v>
+      </c>
+      <c r="B64" s="57">
+        <v>2</v>
+      </c>
+      <c r="C64" s="57">
+        <v>3</v>
+      </c>
+      <c r="D64" s="52">
+        <v>37904</v>
+      </c>
+      <c r="E64" s="52">
+        <v>38322</v>
+      </c>
+      <c r="F64" s="4">
+        <v>375</v>
+      </c>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="21">
+        <v>5</v>
+      </c>
+      <c r="B65" s="57">
+        <v>2</v>
+      </c>
+      <c r="C65" s="57">
+        <v>2</v>
+      </c>
+      <c r="D65" s="52">
+        <v>38657</v>
+      </c>
+      <c r="E65" s="52">
+        <v>38939</v>
+      </c>
+      <c r="F65" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="21">
+        <v>1</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="56">
+        <v>1</v>
+      </c>
+      <c r="E70" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>2</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="57">
+        <v>2</v>
+      </c>
+      <c r="E71" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>3</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="57">
+        <v>2</v>
+      </c>
+      <c r="E72" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="21">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>1</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>2</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771CDCF-FBC9-48DC-B8A8-6726B4CEDD4D}">
+  <dimension ref="A1:Q82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>122521255</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="61">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5471254515</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="61">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>545842654</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="61">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="65">
+        <v>45795</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67">
+        <v>122521255</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="65">
+        <v>45665</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="67">
+        <v>200</v>
+      </c>
+      <c r="L24" s="67">
+        <v>5471254515</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24" s="67"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="65">
+        <v>45547</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="67">
+        <v>50</v>
+      </c>
+      <c r="L25" s="67">
+        <v>545842654</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="B36" s="69">
+        <v>45795</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="67">
+        <v>2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>555</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="69">
+        <v>45665</v>
+      </c>
+      <c r="C37" s="17">
+        <v>2</v>
+      </c>
+      <c r="D37" s="67">
+        <v>1</v>
+      </c>
+      <c r="E37" s="17">
+        <v>666</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" s="67">
+        <v>200</v>
+      </c>
+      <c r="J37" s="67"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>3</v>
+      </c>
+      <c r="B38" s="69">
+        <v>45547</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+      <c r="D38" s="67">
+        <v>3</v>
+      </c>
+      <c r="E38" s="17">
+        <v>999</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="67">
+        <v>50</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="73">
+        <v>555</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="67">
+        <v>122521255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>2</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="73">
+        <v>666</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="67">
+        <v>5471254515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>3</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="73">
+        <v>999</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" s="67">
+        <v>545842654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="21">
+        <v>1</v>
+      </c>
+      <c r="B60" s="76">
+        <v>45795</v>
+      </c>
+      <c r="C60" s="28">
+        <v>1</v>
+      </c>
+      <c r="D60" s="77">
+        <v>2</v>
+      </c>
+      <c r="E60" s="28">
+        <v>555</v>
+      </c>
+      <c r="F60" s="29">
+        <v>1</v>
+      </c>
+      <c r="G60" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="21">
+        <v>2</v>
+      </c>
+      <c r="B61" s="76">
+        <v>45665</v>
+      </c>
+      <c r="C61" s="28">
+        <v>2</v>
+      </c>
+      <c r="D61" s="77">
+        <v>1</v>
+      </c>
+      <c r="E61" s="28">
+        <v>666</v>
+      </c>
+      <c r="F61" s="29">
+        <v>2</v>
+      </c>
+      <c r="G61" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="29">
+        <v>1</v>
+      </c>
+      <c r="I61" s="77"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="21">
+        <v>3</v>
+      </c>
+      <c r="B62" s="76">
+        <v>45547</v>
+      </c>
+      <c r="C62" s="28">
+        <v>3</v>
+      </c>
+      <c r="D62" s="77">
+        <v>3</v>
+      </c>
+      <c r="E62" s="28">
+        <v>999</v>
+      </c>
+      <c r="F62" s="29">
+        <v>3</v>
+      </c>
+      <c r="G62" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="H62" s="29">
+        <v>2</v>
+      </c>
+      <c r="I62" s="77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="67">
+        <v>200</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="67">
+        <v>50</v>
+      </c>
+      <c r="I68" s="11">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I69" s="11">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I70" s="11">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I73" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>1</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="73">
+        <v>555</v>
+      </c>
+      <c r="G74" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="I74" s="67">
+        <v>122521255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>2</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="73">
+        <v>666</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" s="67">
+        <v>5471254515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>3</v>
+      </c>
+      <c r="B76" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" s="73">
+        <v>999</v>
+      </c>
+      <c r="G76" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I76" s="67">
+        <v>545842654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC65238F-C884-424D-A041-A5E8B011507B}">
+  <dimension ref="A1:K90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="20" style="27" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1135</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1135</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>1</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
+        <v>2</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E21" s="89">
+        <v>0.6875</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="86">
+        <v>3</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E22" s="89">
+        <v>0.6875</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
+        <v>4</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E23" s="89">
+        <v>0.6875</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
+        <v>5</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
+        <v>6</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="88">
+        <v>0.5625</v>
+      </c>
+      <c r="E25" s="89">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>7</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="88">
+        <v>0.5625</v>
+      </c>
+      <c r="E26" s="89">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="86">
+        <v>8</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="86">
+        <v>9</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="88">
+        <v>0.4375</v>
+      </c>
+      <c r="E28" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
+        <v>10</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="88">
+        <v>0.4375</v>
+      </c>
+      <c r="E29" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
+        <v>11</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="88">
+        <v>0.4375</v>
+      </c>
+      <c r="E30" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>12</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="86">
+        <v>13</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E32" s="89">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="86">
+        <v>14</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="88">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E33" s="89">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="47">
+        <v>1135</v>
+      </c>
+      <c r="H33" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="86">
+        <v>15</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="86">
+        <v>16</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="88">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E35" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
+        <v>17</v>
+      </c>
+      <c r="B36" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="88">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E36" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
+        <v>18</v>
+      </c>
+      <c r="B37" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="88">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E37" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
+        <v>19</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="88">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E38" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="F38" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
+        <v>20</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="92">
+        <v>1</v>
+      </c>
+      <c r="C46" s="92">
+        <v>1554</v>
+      </c>
+      <c r="D46" s="92">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>2</v>
+      </c>
+      <c r="B47" s="92">
+        <v>2</v>
+      </c>
+      <c r="C47" s="92">
+        <v>1554</v>
+      </c>
+      <c r="D47" s="92">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>3</v>
+      </c>
+      <c r="B48" s="92">
+        <v>3</v>
+      </c>
+      <c r="C48" s="92">
+        <v>2222</v>
+      </c>
+      <c r="D48" s="92">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>4</v>
+      </c>
+      <c r="B49" s="92">
+        <v>4</v>
+      </c>
+      <c r="C49" s="92">
+        <v>2222</v>
+      </c>
+      <c r="D49" s="92">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>5</v>
+      </c>
+      <c r="B50" s="92">
+        <v>5</v>
+      </c>
+      <c r="C50" s="92">
+        <v>8798</v>
+      </c>
+      <c r="D50" s="92">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G51" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="94">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J53" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G54" s="11">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="J54" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G55" s="11">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I55" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="J55" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G56" s="11">
+        <v>4</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="94">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J56" s="89">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57" s="11">
+        <v>5</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I57" s="94">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="J57" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>1554</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>2222</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="100"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>8798</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>1234</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>1545</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>4545</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>8905</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>8777</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="34"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>3125</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D77" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D79" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" s="97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="E81" s="98">
+        <v>1234</v>
+      </c>
+      <c r="F81" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D82" s="11">
+        <v>2</v>
+      </c>
+      <c r="E82" s="98">
+        <v>1234</v>
+      </c>
+      <c r="F82" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D83" s="11">
+        <v>3</v>
+      </c>
+      <c r="E83" s="98">
+        <v>1234</v>
+      </c>
+      <c r="F83" s="98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D84" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84" s="98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="82"/>
+      <c r="I90" s="82"/>
+      <c r="J90" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/semaine09/Exercices Normalisation CORRIGÉ.xlsx
+++ b/semaine09/Exercices Normalisation CORRIGÉ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D814CDFA-F19C-4EE4-98E2-8EF666D223B0}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{EA32A5FA-E32F-4186-97EF-4BB6CD94590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2A3E2E7-AC8E-4266-BDBF-6C4952248D4C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0396A7F1-1E04-4F88-9268-C201BCCDCAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="288">
   <si>
     <t>Parking du cégep</t>
   </si>
@@ -919,6 +919,40 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>prestations_horaires</t>
+  </si>
+  <si>
+    <t>id_prestation</t>
+  </si>
+  <si>
+    <t>Où mettre les notes? Puisque un étudiant peut avoir plusieurs cours et que le cours peut avoir plusieurs étudiants, il n'est pas possible de faire une FK entre les 2 directement</t>
+  </si>
+  <si>
+    <r>
+      <t>Dans les cas "plusieurs à plusieurs", on fait une</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table de liaison</t>
+    </r>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>id_etudiant</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1327,12 +1361,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5493,7 +5521,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,244 +6396,259 @@
       <c r="I43" s="82"/>
       <c r="J43" s="82"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="G44" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="G46" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="H46" s="91" t="s">
         <v>265</v>
       </c>
-      <c r="C45" s="91" t="s">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="C47" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="D47" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="F47" s="11">
         <v>1</v>
       </c>
-      <c r="B46" s="92">
+      <c r="G47" s="92">
         <v>1</v>
       </c>
-      <c r="C46" s="92">
-        <v>1554</v>
-      </c>
-      <c r="D46" s="92">
+      <c r="H47" s="92">
         <v>1</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>2</v>
-      </c>
-      <c r="B47" s="92">
-        <v>2</v>
-      </c>
-      <c r="C47" s="92">
-        <v>1554</v>
-      </c>
-      <c r="D47" s="92">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G47" s="11">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" s="92">
-        <v>3</v>
+        <v>1554</v>
       </c>
       <c r="C48" s="92">
-        <v>2222</v>
-      </c>
-      <c r="D48" s="92">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="11">
         <v>2</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="11">
-        <v>3</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>237</v>
+      <c r="G48" s="92">
+        <v>1</v>
+      </c>
+      <c r="H48" s="92">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="92">
-        <v>4</v>
+        <v>2222</v>
       </c>
       <c r="C49" s="92">
-        <v>2222</v>
-      </c>
-      <c r="D49" s="92">
         <v>2</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="F49" s="11">
+        <v>3</v>
+      </c>
+      <c r="G49" s="92">
+        <v>2</v>
+      </c>
+      <c r="H49" s="92">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
+        <v>3</v>
+      </c>
+      <c r="B50" s="92">
+        <v>8798</v>
+      </c>
+      <c r="C50" s="92">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="11">
+        <v>4</v>
+      </c>
+      <c r="G50" s="92">
+        <v>2</v>
+      </c>
+      <c r="H50" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="11">
         <v>5</v>
       </c>
-      <c r="B50" s="92">
+      <c r="G51" s="92">
+        <v>3</v>
+      </c>
+      <c r="H51" s="92">
         <v>5</v>
       </c>
-      <c r="C50" s="92">
-        <v>8798</v>
-      </c>
-      <c r="D50" s="92">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G51" s="34" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G52" s="9" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="59" t="s">
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="I52" s="93" t="s">
+      <c r="I54" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J54" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K52" s="59" t="s">
+      <c r="K54" s="59" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>1</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="I53" s="94">
+      <c r="I55" s="94">
         <v>0.35416666666666669</v>
       </c>
-      <c r="J53" s="89">
+      <c r="J55" s="89">
         <v>0.4375</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G54" s="11">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I54" s="89">
-        <v>0.4375</v>
-      </c>
-      <c r="J54" s="89">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K54" s="4">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G55" s="11">
-        <v>3</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I55" s="89">
-        <v>0.4375</v>
-      </c>
-      <c r="J55" s="89">
-        <v>0.52083333333333337</v>
       </c>
       <c r="K55" s="4">
         <v>1135</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="G56" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I56" s="94">
-        <v>0.60416666666666663</v>
+        <v>270</v>
+      </c>
+      <c r="I56" s="89">
+        <v>0.4375</v>
       </c>
       <c r="J56" s="89">
-        <v>0.72916666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="K56" s="4">
         <v>1135</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="G57" s="11">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I57" s="89">
+        <v>0.4375</v>
+      </c>
+      <c r="J57" s="89">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G58" s="11">
+        <v>4</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="94">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J58" s="89">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G59" s="11">
         <v>5</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I57" s="94">
+      <c r="I59" s="94">
         <v>0.35416666666666669</v>
       </c>
-      <c r="J57" s="89">
+      <c r="J59" s="89">
         <v>0.4375</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6613,13 +6656,9 @@
       <c r="A60" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
+      <c r="D60" s="27" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="96" t="s">
@@ -6628,13 +6667,9 @@
       <c r="B61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
+      <c r="D61" s="27" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
@@ -6643,13 +6678,6 @@
       <c r="B62" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
@@ -6658,13 +6686,9 @@
       <c r="B63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="100"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
+      <c r="D63" s="34" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
@@ -6673,146 +6697,167 @@
       <c r="B64" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D64" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F64" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="92">
+        <v>1</v>
+      </c>
+      <c r="F65" s="92">
+        <v>1234</v>
+      </c>
+      <c r="G65" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="11">
+        <v>2</v>
+      </c>
+      <c r="E66" s="92">
+        <v>1</v>
+      </c>
+      <c r="F66" s="92">
+        <v>1545</v>
+      </c>
+      <c r="G66" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D67" s="11">
+        <v>3</v>
+      </c>
+      <c r="E67" s="92">
+        <v>1</v>
+      </c>
+      <c r="F67" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D68" s="11">
+        <v>4</v>
+      </c>
+      <c r="E68" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>1234</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="99"/>
-      <c r="J69" s="99"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D69" s="11">
+        <v>5</v>
+      </c>
+      <c r="E69" s="92">
+        <v>2</v>
+      </c>
+      <c r="F69" s="92">
+        <v>4545</v>
+      </c>
+      <c r="G69" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>1545</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D70" s="11">
+        <v>6</v>
+      </c>
+      <c r="E70" s="92">
+        <v>2</v>
+      </c>
+      <c r="F70" s="92">
+        <v>8905</v>
+      </c>
+      <c r="G70" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>4545</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>8905</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>272</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>8777</v>
       </c>
@@ -6821,7 +6866,7 @@
       </c>
       <c r="D75" s="34"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>3125</v>
       </c>
@@ -6829,22 +6874,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D80" s="9" t="s">
         <v>55</v>
       </c>
